--- a/biology/Botanique/Parietaria_debilis/Parietaria_debilis.xlsx
+++ b/biology/Botanique/Parietaria_debilis/Parietaria_debilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parietaria debilis est une espèce de plante de la famille des Urticaceae et du genre Parietaria.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parietaria debilis est une plante herbacée annuelle, avec de nombreuses branches couvertes de poils rugueux (trichomes). Elle a des tiges rouges et atteint une hauteur de 1 à 4 cm, exceptionnellement jusqu'à 7. Les feuilles sont verdâtres clair et mesurent de 1 à 3 cm sur 5 à 20 mm, alternes, pétiolées, ovales, avec des poils sur les deux faces. Les fleurs sont verdâtres ou blanchâtres et poussent à l'aisselle des feuilles sans pédoncules et regroupées par cinq formant des glomérules. Le fruit est un akène noir et brillant.
 </t>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parietaria debilis est présente partout dans le monde. 
-Elle est une plante très commune qui pousse même sur les murs des bâtiments abandonnés, des vieux murs et des ruines[3].
+Elle est une plante très commune qui pousse même sur les murs des bâtiments abandonnés, des vieux murs et des ruines.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasites Hyalochilus ovatulus (ceb), Vanessa atalanta, Apterygothrips longiceps et Cosmopterix turbidella[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasites Hyalochilus ovatulus (ceb), Vanessa atalanta, Apterygothrips longiceps et Cosmopterix turbidella.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parietaria debilis contient des principes amers, des tanins, des flavonoïdes, de l'oxalate de calcium et des mucilages. Elle a un effet diurétique modéré et est recommandée en cas de calculs rénaux et de difficultés à miction. Elle est purifiante et s'applique en externe sous forme de cataplasme en cas d'hémorroïdes et de douleurs de goutte.
 </t>
